--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistema_finenaciera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B677601D-C7BD-4C3D-80E6-2ECC7EA1FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F9B495-25F3-4832-A335-4022816C44DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14290" yWindow="910" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>id_transaccion</t>
   </si>
   <si>
-    <t>tipo</t>
-  </si>
-  <si>
     <t>estado_transaccion</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>decimal (10,2)</t>
+  </si>
+  <si>
+    <t>tipo (concepto)</t>
   </si>
 </sst>
 </file>
@@ -539,28 +539,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:M25"/>
+  <dimension ref="D2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:13" ht="21" x14ac:dyDescent="0.5">
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,386 +585,384 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
         <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
         <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
         <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s">
         <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
         <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
         <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
         <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.35">
       <c r="H15" t="s">
         <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J19" t="s">
         <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s">
         <v>34</v>
       </c>
       <c r="M19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" t="s">
-        <v>50</v>
-      </c>
       <c r="L20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
       <c r="L22" t="s">
         <v>26</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J24" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistema_finenaciera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F9B495-25F3-4832-A335-4022816C44DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2A7E52-FF61-470A-B3DF-43E647313E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Sistema Financiera</t>
   </si>
@@ -195,7 +195,13 @@
     <t>decimal (10,2)</t>
   </si>
   <si>
-    <t>tipo (concepto)</t>
+    <t>tipo (ingreso, salida)</t>
+  </si>
+  <si>
+    <t>concepto</t>
+  </si>
+  <si>
+    <t>varchar (15)</t>
   </si>
 </sst>
 </file>
@@ -541,26 +547,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:M23"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="4:13" ht="21" x14ac:dyDescent="0.35">
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,7 +574,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,7 +591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -617,7 +623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -649,7 +655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -681,7 +687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -713,7 +719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -745,7 +751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -777,7 +783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>14</v>
       </c>
@@ -803,7 +809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>15</v>
       </c>
@@ -823,7 +829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>16</v>
       </c>
@@ -843,7 +849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>17</v>
       </c>
@@ -857,7 +863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>27</v>
       </c>
@@ -865,7 +871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
@@ -873,7 +879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>41</v>
       </c>
@@ -887,7 +893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>29</v>
       </c>
@@ -901,12 +907,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L20" t="s">
         <v>45</v>
@@ -915,12 +921,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
@@ -929,12 +935,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L22" t="s">
         <v>26</v>
@@ -943,9 +949,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" t="s">
         <v>54</v>
@@ -957,7 +963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>42</v>
       </c>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistema_finenaciera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2A7E52-FF61-470A-B3DF-43E647313E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F70943-E459-4B5C-A8C5-F24700C5F719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="triggers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>Sistema Financiera</t>
   </si>
@@ -135,9 +136,6 @@
     <t>monto</t>
   </si>
   <si>
-    <t>fecha_solicitud</t>
-  </si>
-  <si>
     <t>fecha_aprobacion</t>
   </si>
   <si>
@@ -202,6 +200,70 @@
   </si>
   <si>
     <t>varchar (15)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Sumar al saldo</t>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE TRIGGER actualizar_saldo_ingreso
+AFTER INSERT ON transaccion
+FOR EACH ROW
+BEGIN
+    IF NEW.tipo = 'ingreso' THEN
+        UPDATE cuenta
+        SET saldo = saldo + NEW.monto
+        WHERE id_cuenta = NEW.id_cuenta;
+    END IF;
+END;
+//
+DELIMITER ;</t>
+  </si>
+  <si>
+    <t>Restar al saldo</t>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE TRIGGER actualizar_saldo_salida
+AFTER INSERT ON transaccion
+FOR EACH ROW
+BEGIN
+    IF NEW.tipo = 'salida' THEN
+        UPDATE cuenta
+        SET saldo = saldo - NEW.monto
+        WHERE id_cuenta = NEW.id_cuenta;
+    END IF;
+END;
+//
+DELIMITER ;</t>
+  </si>
+  <si>
+    <t>Eliminar transaccion</t>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE TRIGGER actualizar_saldo_eliminar
+AFTER DELETE ON transaccion
+FOR EACH ROW
+BEGIN
+    -- Si la transacción eliminada era un ingreso, se resta del saldo
+    IF OLD.tipo = 'ingreso' THEN
+        UPDATE cuenta
+        SET saldo = saldo - OLD.monto
+        WHERE id_cuenta = OLD.id_cuenta;
+    END IF;
+    -- Si la transacción eliminada era una salida, se suma al saldo
+    IF OLD.tipo = 'salida' THEN
+        UPDATE cuenta
+        SET saldo = saldo + OLD.monto
+        WHERE id_cuenta = OLD.id_cuenta;
+    END IF;
+END;
+//
+DELIMITER ;</t>
   </si>
 </sst>
 </file>
@@ -259,11 +321,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,26 +612,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K24"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:13" ht="21" x14ac:dyDescent="0.5">
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,7 +639,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
@@ -591,384 +656,378 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
         <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
         <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
         <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
         <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.35">
       <c r="H15" t="s">
         <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" t="s">
-        <v>44</v>
-      </c>
       <c r="M18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J19" t="s">
         <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
         <v>34</v>
       </c>
       <c r="M19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" t="s">
-        <v>49</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J22" t="s">
         <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
         <v>26</v>
       </c>
       <c r="M22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J23" t="s">
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -977,4 +1036,41 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD06B36A-444B-47E8-A717-9255BF4CB712}">
+  <dimension ref="B3:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>